--- a/question_difficulty_level_result/6.xlsx
+++ b/question_difficulty_level_result/6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,31 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence_probab</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>recommended_level</t>
         </is>
       </c>
@@ -484,7 +509,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"L3":0.7142857143,"L2":0.2857142857}</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -514,7 +560,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L3":2}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{"L2":0.7142857143,"L3":0.2857142857}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -545,6 +612,11 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,6 +643,11 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -597,6 +674,11 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,6 +705,11 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,7 +735,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -678,7 +786,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -704,7 +833,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":5}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"L3":0.5454545455,"L2":0.4545454545}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -734,7 +884,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":5}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"L3":0.5454545455,"L2":0.4545454545}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -765,6 +936,11 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -790,7 +966,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L3":2}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{"L2":0.7142857143,"L3":0.2857142857}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -821,6 +1018,11 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -847,6 +1049,11 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,7 +1079,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -903,6 +1131,11 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,7 +1161,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{"L3":4,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{"L3":0.5714285714,"L2":0.4285714286}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -958,7 +1212,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{"L3":0.8571428571,"L1":0.1428571429}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -989,6 +1264,11 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1014,7 +1294,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{"L3":0.8571428571,"L2":0.1428571429}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1045,6 +1346,11 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1070,7 +1376,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{"L2":4,"L3":3}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{"L2":0.5714285714,"L3":0.4285714286}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1100,7 +1427,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{"L3":0.8571428571,"L2":0.1428571429}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1130,7 +1478,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1161,6 +1530,11 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1187,6 +1561,11 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1212,7 +1591,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{"L3":0.7142857143,"L2":0.2857142857}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1242,7 +1642,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{"L3":0.8571428571,"L2":0.1428571429}</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1272,7 +1693,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>7</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{"L2":0.7142857143,"L1":0.2857142857}</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1303,6 +1745,11 @@
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1328,7 +1775,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{"L2":0.7142857143,"L1":0.2857142857}</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1358,7 +1826,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1388,7 +1877,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="n">
+        <v>7</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L3":2}</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{"L2":0.7142857143,"L3":0.2857142857}</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1419,6 +1929,11 @@
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1445,6 +1960,11 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1471,6 +1991,11 @@
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1496,7 +2021,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1526,7 +2072,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{"L3":0.8571428571,"L2":0.1428571429}</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1556,7 +2123,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1582,7 +2170,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>{"L3":3}</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1612,7 +2221,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1642,7 +2272,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{"L3":0.8571428571,"L2":0.1428571429}</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1672,7 +2323,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="n">
+        <v>7</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{"L3":0.8571428571,"L2":0.1428571429}</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1703,6 +2375,11 @@
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1729,6 +2406,11 @@
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1755,6 +2437,11 @@
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1780,7 +2467,28 @@
           <t>6</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="n">
+        <v>7</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>{"L3":7}</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1811,6 +2519,11 @@
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1837,6 +2550,11 @@
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1863,6 +2581,11 @@
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1889,6 +2612,11 @@
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1915,6 +2643,11 @@
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1941,6 +2674,11 @@
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1967,6 +2705,11 @@
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1993,6 +2736,11 @@
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2019,6 +2767,11 @@
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2045,6 +2798,11 @@
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2071,6 +2829,11 @@
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2097,6 +2860,11 @@
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2123,6 +2891,11 @@
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2149,6 +2922,11 @@
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2175,6 +2953,11 @@
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2201,6 +2984,11 @@
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2227,6 +3015,11 @@
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2253,6 +3046,11 @@
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2279,6 +3077,11 @@
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2305,6 +3108,11 @@
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
